--- a/docs/PT3/PT3_08.11.2024_output.xlsx
+++ b/docs/PT3/PT3_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731610500.0089958</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731610500.9872155</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610500.0089958.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610500.9872155.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7136</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7135.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731610508.4103541</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731610509.3330007</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610508.4103541.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610509.3330007.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7094</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7076</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>18</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731610509.8657618</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731610511.6379783</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610509.8657618.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610511.6379783.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7084</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7109</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-25</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731610515.116406</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731610518.313478</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610515.116406.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610518.313478.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7095</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7105.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-10.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731610525.2224064</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731610525.8227108</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610525.2224064.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610525.8227108.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7091.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7082.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>9</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731610526.5555081</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731610527.0729074</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610526.5555081.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731610527.0729074.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7084.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7066</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>18.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -851,43 +903,49 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731610527.5957763</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731610527.5957763.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731610527.5957763.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7075.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7075.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731610532.167522</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731610532.724208</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610532.167522.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610532.724208.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>475.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>475.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731610537.4687452</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731610538.0290463</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610537.4687452.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610538.0290463.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>473.65</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>474</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731610545.1182911</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731610546.314862</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610545.1182911.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610546.314862.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>473.9</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>473.7</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731610547.8675077</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731610548.5847611</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610547.8675077.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610548.5847611.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>474.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>474.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731610548.6477778</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731610549.0867054</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610548.6477778.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610549.0867054.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>474.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>474.45</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731610551.7007084</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731610552.8901443</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610551.7007084.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610552.8901443.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>474.05</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>475.05</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731610553.5015385</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731610554.1672695</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610553.5015385.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610554.1672695.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>475</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>475.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731610555.7627654</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731610556.6315475</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610555.7627654.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731610556.6315475.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>476.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>476.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1311,43 +1417,49 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731610558.6138988</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731610558.6138988.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731610558.6138988.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>474.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>474.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731610567.1350324</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731610567.716363</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610567.1350324.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610567.716363.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>929.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>930</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731610569.6131968</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731610570.9014516</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610569.6131968.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610570.9014516.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>926.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>933</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-6.399999999999977</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731610572.1327326</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731610572.8883538</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610572.1327326.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610572.8883538.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>931</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>932</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731610578.558375</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731610581.4052255</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610578.558375.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610581.4052255.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>934</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>932.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731610581.4201968</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731610581.98377</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610581.4201968.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610581.98377.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>932.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>933.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.399999999999977</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731610585.364085</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731610586.3133986</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610585.364085.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610586.3133986.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>932.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>930.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731610587.2774303</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731610588.1298966</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610587.2774303.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731610588.1298966.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>931.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>930.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731610589.9748194</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731610590.3867946</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610589.9748194.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610590.3867946.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>129.7</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>130.26</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731610590.443284</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731610592.687794</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610590.443284.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610592.687794.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>130.28</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>130.22</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731610595.0288384</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731610595.5985026</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610595.0288384.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610595.5985026.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>129.62</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>129.1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.5200000000000102</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731610596.6764486</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731610599.5694065</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610596.6764486.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610599.5694065.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>129.3</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>129.3</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731610607.5743415</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731610610.645062</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610607.5743415.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610610.645062.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>130.18</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>130.14</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.04000000000002046</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731610612.1591146</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731610613.1182616</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610612.1591146.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610613.1182616.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>130.18</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>130.12</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731610614.2922182</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731610615.2052255</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610614.2922182.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731610615.2052255.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>130.3</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>130.34</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2083,95 +2279,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731610617.3174994</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731610617.3174994.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731610617.3174994.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>130.06</v>
       </c>
-      <c r="J33" t="n">
-        <v>130.06</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>130.08</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731610621.555305</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731610624.1937304</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610621.555305.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610624.1937304.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>37.945</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>37.725</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731610624.2739635</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731610625.5760036</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610624.2739635.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610625.5760036.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>37.76</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>37.745</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731610625.5919683</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731610626.286038</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610625.5919683.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610626.286038.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>37.745</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>37.765</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731610631.4712288</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731610631.9073727</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610631.4712288.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610631.9073727.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>37.935</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>37.915</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731610636.9185293</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731610637.0304286</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610636.9185293.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610637.0304286.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>37.955</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>38.005</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731610637.1865828</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731610638.6236572</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610637.1865828.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610638.6236572.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>37.975</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>38</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731610638.639586</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731610640.3924406</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610638.639586.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610640.3924406.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>38</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>38.07</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731610642.6212597</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731610645.7384992</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610642.6212597.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610645.7384992.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>38.075</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>37.98</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.09500000000000597</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731610645.7544882</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731610646.2986968</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610645.7544882.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731610646.2986968.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>37.98</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>37.985</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.005000000000002558</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731610647.6548352</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731610648.2939003</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610647.6548352.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610648.2939003.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1178.6</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1178.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731610648.7041311</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731610649.4628434</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610648.7041311.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610649.4628434.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1180.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1181.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731610651.6179729</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731610652.1418765</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610651.6179729.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610652.1418765.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1184</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1183.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731610652.5241795</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731610654.3854961</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610652.5241795.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610654.3854961.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1185</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1181.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731610659.175697</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731610662.0664947</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610659.175697.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610662.0664947.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1185.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1183.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731610666.9175203</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731610668.2781067</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610666.9175203.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610668.2781067.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1190</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731610668.2941117</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731610668.4537501</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610668.2941117.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610668.4537501.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1190</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1188.6</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731610671.4897594</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731610672.3497767</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610671.4897594.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731610672.3497767.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1190.4</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1190.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,51 +3315,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731610677.9965172</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731610681.0621238</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610677.9965172.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610681.0621238.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>78.73</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>79.05</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.3199999999999932</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -3063,51 +3373,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731610681.0780814</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731610681.138164</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610681.0780814.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610681.138164.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>79.05</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>78.98</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731610681.207247</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731610681.988187</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610681.207247.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610681.988187.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>79.09</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1000000000000085</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731610685.8038723</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731610686.6754851</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610685.8038723.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610686.6754851.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>78.26000000000001</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3219,51 +3547,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731610696.1665044</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731610696.5961707</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610696.1665044.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610696.5961707.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>78.54000000000001</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>78.52</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731610699.0748637</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731610699.314911</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610699.0748637.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610699.314911.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>78.56</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731610701.4091148</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731610703.02399</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610701.4091148.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731610703.02399.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>78.73</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>78.75</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731610706.199014</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731610706.756156</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610706.199014.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610706.756156.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>103.67</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>103.46</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731610708.3376753</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731610709.164227</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610708.3376753.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610709.164227.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>103.39</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>103.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3479,51 +3837,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731610711.6705124</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731610712.3951836</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610711.6705124.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610712.3951836.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>103.12</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>102.86</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2600000000000051</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3531,51 +3895,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731610714.4484644</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731610715.0712457</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610714.4484644.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610715.0712457.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>102.19</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>102.38</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3583,51 +3953,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731610717.3344786</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731610720.4007926</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610717.3344786.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610720.4007926.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>102.47</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>102.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3635,51 +4011,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731610725.1781492</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731610725.7597835</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610725.1781492.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610725.7597835.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>102.98</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>102.92</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3687,51 +4069,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731610729.9354732</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731610731.0798945</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610729.9354732.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610731.0798945.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>103.07</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>103.07</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,51 +4127,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731610732.2232037</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731610732.9656594</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610732.2232037.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731610732.9656594.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>103.21</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>103.25</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.04000000000000625</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3791,95 +4185,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731610735.497072</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731610735.497072.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731610735.497072.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>103.1</v>
       </c>
-      <c r="J66" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>102.98</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1199999999999903</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731610735.65312</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731610739.95489</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610735.65312.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610739.95489.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>2751.4</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>2754.5</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-3.099999999999909</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731610743.9645667</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731610744.7605672</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610743.9645667.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610744.7605672.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>2738.3</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>2742.45</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-4.149999999999636</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3939,51 +4351,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731610746.7422044</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731610748.679761</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610746.7422044.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610748.679761.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>2741.85</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>2745.15</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-3.300000000000182</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3991,51 +4409,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731610748.696688</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731610749.7068005</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610748.696688.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610749.7068005.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2745.15</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2748.2</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>3.049999999999727</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4043,51 +4467,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731610751.706003</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731610752.0640104</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610751.706003.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610752.0640104.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2744.9</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2742</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.900000000000091</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4095,51 +4525,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731610754.3822246</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731610755.7469015</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610754.3822246.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610755.7469015.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2748.6</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>2749.25</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.6500000000000909</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4147,51 +4583,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731610759.9365513</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731610760.8040779</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610759.9365513.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610760.8040779.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2751</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2750.95</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.0500000000001819</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -4199,51 +4641,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731610763.8540032</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731610764.1741197</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610763.8540032.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731610764.1741197.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2746.65</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2742.55</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>4.099999999999909</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4251,95 +4699,107 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731610764.9606414</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731610764.9606414.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731610764.9606414.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2745.15</v>
       </c>
-      <c r="J75" t="n">
-        <v>2745.15</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7000000000002728</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731610766.436404</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731610766.7191775</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/APTK1731610766.436404.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/APTK1731610766.7191775.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>10.824</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>10.842</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.01800000000000068</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -4347,51 +4807,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731610770.685117</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731610771.6898983</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/APTK1731610770.685117.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/APTK1731610771.6898983.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>10.868</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>10.864</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.003999999999999559</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4399,95 +4865,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731610790.779627</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/APTK1731610790.779627.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/APTK1731610790.779627.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>10.86</v>
       </c>
-      <c r="J78" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>10.868</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.008000000000000895</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731610791.0735946</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731610791.8215477</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610791.0735946.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610791.8215477.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>480.3</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>481</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.6999999999999886</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731610792.4154625</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731610794.0669348</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610792.4154625.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610794.0669348.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>478.9</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>480.9</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>2</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -4547,51 +5031,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731610797.4581194</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731610798.4137125</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610797.4581194.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610798.4137125.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>483.3</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>479.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-3.800000000000011</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.79</v>
       </c>
     </row>
@@ -4599,51 +5089,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731610803.3881977</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731610804.2758753</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610803.3881977.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610804.2758753.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>482.2</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>482.2</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4651,51 +5147,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731610806.5823338</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731610808.7733283</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610806.5823338.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610808.7733283.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>481.4</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>485</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-3.600000000000023</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -4703,51 +5205,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731610810.2237108</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731610810.9244466</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610810.2237108.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610810.9244466.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>486.3</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>485.8</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4755,51 +5263,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731610812.8109927</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731610814.4252236</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610812.8109927.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610814.4252236.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>485.5</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>487</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>1.5</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4807,51 +5321,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731610815.638953</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731610815.8831575</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610815.638953.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610815.8831575.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>485</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>485.4</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4859,51 +5379,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731610815.94135</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731610816.5507224</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610815.94135.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610816.5507224.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>485.4</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>486.1</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.7000000000000455</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4911,51 +5437,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731610817.117021</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731610817.421435</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610817.117021.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731610817.421435.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>484.1</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>484.9</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4963,51 +5495,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731610822.8949497</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731610824.1102583</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610822.8949497.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610824.1102583.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>576.1</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>576.7</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -5015,51 +5553,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731610827.848097</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731610830.4455614</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610827.848097.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610830.4455614.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>573.6</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>575.5</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-1.899999999999977</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -5067,51 +5611,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731610830.4625163</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731610830.6972506</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610830.4625163.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610830.6972506.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>575.5</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>576.3</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -5119,51 +5669,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731610836.2135842</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731610836.6753283</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610836.2135842.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610836.6753283.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>577.1</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>577.8</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.6999999999999318</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5171,51 +5727,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731610838.9447367</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731610839.6706946</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610838.9447367.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610839.6706946.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>580.1</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>580.2</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5223,51 +5785,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731610844.2549798</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731610844.7932649</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610844.2549798.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610844.7932649.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>583</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>584.2</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -5275,51 +5843,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731610848.0765162</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731610848.9820058</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610848.0765162.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/TATN1731610848.9820058.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>576.9</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>575.7</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -5425,19 +5999,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3200000000000216</v>
+        <v>0.4400000000000119</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03555555555555796</v>
+        <v>0.04888888888889022</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -5447,16 +6021,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09999999999990905</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01111111111110101</v>
+        <v>0.0888888888889091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5513,19 +6087,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.080000000000041</v>
+        <v>-1.100000000000051</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1350000000000051</v>
+        <v>-0.1375000000000064</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8300000000000001</v>
+        <v>-0.85</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9">
@@ -5623,19 +6197,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02200000000000024</v>
+        <v>-0.01399999999999935</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.007333333333333414</v>
+        <v>-0.004666666666666448</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.21</v>
+        <v>-0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14">
